--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1056">
   <si>
     <t>anchor score</t>
   </si>
@@ -487,466 +487,466 @@
     <t>mis</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>america</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>due</t>
   </si>
   <si>
     <t>best</t>
@@ -3550,7 +3550,7 @@
         <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3608,7 +3608,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0279159907386999</v>
+        <v>0.02829471044689158</v>
       </c>
       <c r="C3">
         <v>191</v>
@@ -3629,28 +3629,28 @@
         <v>101</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="K3">
-        <v>0.00427104460345118</v>
+        <v>0.007353048010186212</v>
       </c>
       <c r="L3">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M3">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>174</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3658,7 +3658,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0224929907437704</v>
+        <v>0.02279813982375737</v>
       </c>
       <c r="C4">
         <v>124</v>
@@ -3679,28 +3679,28 @@
         <v>392</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K4">
-        <v>0.004257950288597954</v>
+        <v>0.006643536987644976</v>
       </c>
       <c r="L4">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="M4">
-        <v>627</v>
+        <v>160</v>
       </c>
       <c r="N4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2480</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3708,7 +3708,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01068846593928872</v>
+        <v>0.01083347002456134</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -3729,28 +3729,28 @@
         <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="K5">
-        <v>0.003787398804524978</v>
+        <v>0.00427104460345118</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3758,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01009965099005084</v>
+        <v>0.01023666697173647</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -3779,28 +3779,28 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="K6">
-        <v>0.003770044285933328</v>
+        <v>0.004257950288597954</v>
       </c>
       <c r="L6">
-        <v>359</v>
+        <v>600</v>
       </c>
       <c r="M6">
-        <v>371</v>
+        <v>627</v>
       </c>
       <c r="N6">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O6">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>2830</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3808,7 +3808,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009687244918508467</v>
+        <v>0.009818666031341581</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -3829,16 +3829,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K7">
-        <v>0.003279983578981444</v>
+        <v>0.003787398804524978</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3858,7 +3858,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008079720792040671</v>
+        <v>0.008189333577389175</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -3879,28 +3879,28 @@
         <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>313</v>
+        <v>106</v>
       </c>
       <c r="K8">
-        <v>0.003279983578981444</v>
+        <v>0.003770044285933328</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>371</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>228</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3908,7 +3908,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007282961901783789</v>
+        <v>0.007381765531288902</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -3929,16 +3929,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K9">
-        <v>0.003194774637131755</v>
+        <v>0.003279983578981444</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>193</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3958,7 +3958,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007282961901783789</v>
+        <v>0.007381765531288902</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -3979,28 +3979,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>175</v>
+        <v>313</v>
       </c>
       <c r="K10">
-        <v>0.003158952165851644</v>
+        <v>0.003279983578981444</v>
       </c>
       <c r="L10">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4008,7 +4008,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006699350569508014</v>
+        <v>0.006790236689814702</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4029,28 +4029,28 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
       <c r="K11">
-        <v>0.003156247247450739</v>
+        <v>0.003194774637131755</v>
       </c>
       <c r="L11">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="N11">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>689</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4058,7 +4058,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006387580140267046</v>
+        <v>0.006474236655861145</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4079,28 +4079,28 @@
         <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="K12">
-        <v>0.003030219554091612</v>
+        <v>0.003158952165851644</v>
       </c>
       <c r="L12">
-        <v>387</v>
+        <v>110</v>
       </c>
       <c r="M12">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>1734</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4108,7 +4108,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006387580140267046</v>
+        <v>0.006474236655861145</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4129,28 +4129,28 @@
         <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="K13">
-        <v>0.003017146066965464</v>
+        <v>0.003156247247450739</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>82</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4158,7 +4158,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006387580140267046</v>
+        <v>0.006474236655861145</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -4179,28 +4179,28 @@
         <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>316</v>
+        <v>105</v>
       </c>
       <c r="K14">
-        <v>0.002971080063081669</v>
+        <v>0.003030219554091612</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>387</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>409</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>111</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4208,7 +4208,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006387580140267046</v>
+        <v>0.006474236655861145</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -4229,16 +4229,16 @@
         <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K15">
-        <v>0.002924288476378071</v>
+        <v>0.003017146066965464</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4258,7 +4258,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006387580140267046</v>
+        <v>0.006474236655861145</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -4279,28 +4279,28 @@
         <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>177</v>
+        <v>316</v>
       </c>
       <c r="K16">
-        <v>0.002921888260712425</v>
+        <v>0.002971080063081669</v>
       </c>
       <c r="L16">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>42</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4308,7 +4308,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006059790594030504</v>
+        <v>0.00614200018304188</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -4329,16 +4329,16 @@
         <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K17">
-        <v>0.002876735901141046</v>
+        <v>0.002924288476378071</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4358,7 +4358,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006059790594030504</v>
+        <v>0.00614200018304188</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -4379,28 +4379,28 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K18">
-        <v>0.002840300629252171</v>
+        <v>0.002921888260712425</v>
       </c>
       <c r="L18">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="M18">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4408,7 +4408,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006059790594030504</v>
+        <v>0.00614200018304188</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -4429,16 +4429,16 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K19">
-        <v>0.002828383954973227</v>
+        <v>0.002876735901141046</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4458,7 +4458,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006059790594030504</v>
+        <v>0.00614200018304188</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4479,28 +4479,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>320</v>
+        <v>166</v>
       </c>
       <c r="K20">
-        <v>0.002828383954973227</v>
+        <v>0.002840300629252171</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4508,7 +4508,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005713225362145902</v>
+        <v>0.005790733305970574</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -4529,28 +4529,28 @@
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="K21">
-        <v>0.002688583665678535</v>
+        <v>0.002828383954973227</v>
       </c>
       <c r="L21">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>370</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4558,7 +4558,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005713225362145902</v>
+        <v>0.005790733305970574</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -4579,28 +4579,28 @@
         <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>159</v>
+        <v>320</v>
       </c>
       <c r="K22">
-        <v>0.002686355864682915</v>
+        <v>0.002828383954973227</v>
       </c>
       <c r="L22">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>714</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4608,7 +4608,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005713225362145902</v>
+        <v>0.005790733305970574</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -4629,28 +4629,28 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>321</v>
+        <v>169</v>
       </c>
       <c r="K23">
-        <v>0.002518855674263064</v>
+        <v>0.002688583665678535</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4658,7 +4658,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005713225362145902</v>
+        <v>0.005790733305970574</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4679,28 +4679,28 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="K24">
-        <v>0.002463489447836837</v>
+        <v>0.002686355864682915</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>714</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4708,7 +4708,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00534423296964436</v>
+        <v>0.00541673501228067</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -4729,16 +4729,16 @@
         <v>44</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K25">
-        <v>0.002463489447836837</v>
+        <v>0.002518855674263064</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4758,7 +4758,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00534423296964436</v>
+        <v>0.00541673501228067</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -4779,7 +4779,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K26">
         <v>0.002463489447836837</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4808,7 +4808,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.00534423296964436</v>
+        <v>0.00541673501228067</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -4829,7 +4829,7 @@
         <v>142</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K27">
         <v>0.002463489447836837</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4858,7 +4858,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.00534423296964436</v>
+        <v>0.00541673501228067</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -4879,16 +4879,16 @@
         <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K28">
-        <v>0.002406849935380196</v>
+        <v>0.002463489447836837</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4908,7 +4908,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00534423296964436</v>
+        <v>0.00541673501228067</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -4929,28 +4929,28 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="K29">
-        <v>0.002291591272683037</v>
+        <v>0.002463489447836837</v>
       </c>
       <c r="L29">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4958,7 +4958,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.00534423296964436</v>
+        <v>0.00541673501228067</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -4979,28 +4979,28 @@
         <v>9</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="K30">
-        <v>0.002257626120209298</v>
+        <v>0.002406849935380196</v>
       </c>
       <c r="L30">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>275</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5008,7 +5008,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.00534423296964436</v>
+        <v>0.00541673501228067</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -5029,28 +5029,28 @@
         <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="K31">
-        <v>0.002228310047311252</v>
+        <v>0.002291591272683037</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5058,7 +5058,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0049477983011639</v>
+        <v>0.005014922149511163</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -5079,16 +5079,16 @@
         <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K32">
-        <v>0.00217354755046725</v>
+        <v>0.002257626120209298</v>
       </c>
       <c r="L32">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M32">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="N32">
         <v>0.97</v>
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5108,7 +5108,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0049477983011639</v>
+        <v>0.005014922149511163</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -5129,16 +5129,16 @@
         <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K33">
-        <v>0.002165528115445394</v>
+        <v>0.002228310047311252</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5158,7 +5158,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0049477983011639</v>
+        <v>0.005014922149511163</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -5179,28 +5179,28 @@
         <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="K34">
-        <v>0.002165528115445394</v>
+        <v>0.00217354755046725</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>283</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5208,7 +5208,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0049477983011639</v>
+        <v>0.005014922149511163</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -5229,16 +5229,16 @@
         <v>31</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K35">
-        <v>0.002100870860053203</v>
+        <v>0.002165528115445394</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>150</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5258,7 +5258,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0049477983011639</v>
+        <v>0.005014922149511163</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -5279,16 +5279,16 @@
         <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K36">
-        <v>0.002100870860053203</v>
+        <v>0.002165528115445394</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5308,7 +5308,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0049477983011639</v>
+        <v>0.005014922149511163</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -5329,7 +5329,7 @@
         <v>246</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K37">
         <v>0.002100870860053203</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5358,7 +5358,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0049477983011639</v>
+        <v>0.005014922149511163</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -5379,28 +5379,28 @@
         <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="K38">
-        <v>0.002068949226083562</v>
+        <v>0.002100870860053203</v>
       </c>
       <c r="L38">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>132</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5408,7 +5408,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0049477983011639</v>
+        <v>0.005014922149511163</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -5429,28 +5429,28 @@
         <v>14</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>181</v>
+        <v>332</v>
       </c>
       <c r="K39">
-        <v>0.002034811899410532</v>
+        <v>0.002100870860053203</v>
       </c>
       <c r="L39">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>245</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5458,7 +5458,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0049477983011639</v>
+        <v>0.005014922149511163</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -5479,28 +5479,28 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>333</v>
+        <v>179</v>
       </c>
       <c r="K40">
-        <v>0.002034159463379627</v>
+        <v>0.002034811899410532</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>35</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5508,7 +5508,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0049477983011639</v>
+        <v>0.005014922149511163</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -5529,7 +5529,7 @@
         <v>49</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K41">
         <v>0.002034159463379627</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5558,7 +5558,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004516701232555346</v>
+        <v>0.004577976642365932</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -5579,28 +5579,28 @@
         <v>16</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>161</v>
+        <v>334</v>
       </c>
       <c r="K42">
-        <v>0.002021428753408485</v>
+        <v>0.002034159463379627</v>
       </c>
       <c r="L42">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>143</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5608,7 +5608,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004516701232555346</v>
+        <v>0.004577976642365932</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -5629,28 +5629,28 @@
         <v>14</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K43">
-        <v>0.001977919780706653</v>
+        <v>0.002021428753408485</v>
       </c>
       <c r="L43">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="M43">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>455</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5658,7 +5658,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004516701232555346</v>
+        <v>0.004577976642365932</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5679,28 +5679,28 @@
         <v>75</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>335</v>
+        <v>163</v>
       </c>
       <c r="K44">
-        <v>0.001965184743044048</v>
+        <v>0.001977919780706653</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>216</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5708,7 +5708,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004516701232555346</v>
+        <v>0.004577976642365932</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5729,7 +5729,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K45">
         <v>0.001965184743044048</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>110</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5758,7 +5758,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004516701232555346</v>
+        <v>0.004577976642365932</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5779,28 +5779,28 @@
         <v>14</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="K46">
-        <v>0.001955085168464301</v>
+        <v>0.001965184743044048</v>
       </c>
       <c r="L46">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5808,7 +5808,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004516701232555346</v>
+        <v>0.004577976642365932</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5829,28 +5829,28 @@
         <v>35</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>337</v>
+        <v>180</v>
       </c>
       <c r="K47">
-        <v>0.001893699402262489</v>
+        <v>0.001955085168464301</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5858,7 +5858,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004516701232555346</v>
+        <v>0.004577976642365932</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -5879,7 +5879,7 @@
         <v>26</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K48">
         <v>0.001893699402262489</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5908,7 +5908,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004039860396020336</v>
+        <v>0.004094666788694587</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -5929,7 +5929,7 @@
         <v>369</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K49">
         <v>0.001893699402262489</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5958,7 +5958,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004039860396020336</v>
+        <v>0.004094666788694587</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -5979,7 +5979,7 @@
         <v>162</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K50">
         <v>0.001893699402262489</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -6008,7 +6008,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004039860396020336</v>
+        <v>0.004094666788694587</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -6029,7 +6029,7 @@
         <v>26</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K51">
         <v>0.001893699402262489</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -6058,7 +6058,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004039860396020336</v>
+        <v>0.004094666788694587</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -6079,7 +6079,7 @@
         <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K52">
         <v>0.001893699402262489</v>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -6108,7 +6108,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004039860396020336</v>
+        <v>0.004094666788694587</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -6129,7 +6129,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K53">
         <v>0.001893699402262489</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -6158,7 +6158,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004039860396020336</v>
+        <v>0.004094666788694587</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6179,28 +6179,28 @@
         <v>2</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
       <c r="K54">
-        <v>0.001847380986840711</v>
+        <v>0.001893699402262489</v>
       </c>
       <c r="L54">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -6208,7 +6208,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004039860396020336</v>
+        <v>0.004094666788694587</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6258,7 +6258,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004039860396020336</v>
+        <v>0.004094666788694587</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6308,7 +6308,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -6358,7 +6358,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -6408,7 +6408,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -6429,7 +6429,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K59">
         <v>0.001763133011844256</v>
@@ -6458,7 +6458,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -6508,7 +6508,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -6558,7 +6558,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6608,7 +6608,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6658,7 +6658,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6708,7 +6708,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6758,7 +6758,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6808,7 +6808,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6858,7 +6858,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6908,7 +6908,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6958,7 +6958,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6979,7 +6979,7 @@
         <v>12</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K70">
         <v>0.001652725917979686</v>
@@ -7008,7 +7008,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7029,7 +7029,7 @@
         <v>16</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K71">
         <v>0.00163845474926062</v>
@@ -7058,7 +7058,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7079,7 +7079,7 @@
         <v>13</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K72">
         <v>0.001637026544580688</v>
@@ -7108,7 +7108,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7129,7 +7129,7 @@
         <v>5</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K73">
         <v>0.001581754980782847</v>
@@ -7158,7 +7158,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003498621730696273</v>
+        <v>0.00354608545904196</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003473792231897333</v>
+        <v>0.003520919113142457</v>
       </c>
       <c r="C75">
         <v>27</v>
@@ -7258,7 +7258,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7308,7 +7308,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -7358,7 +7358,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -7408,7 +7408,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7458,7 +7458,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7508,7 +7508,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7558,7 +7558,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7608,7 +7608,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7658,7 +7658,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7679,7 +7679,7 @@
         <v>37</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K84">
         <v>0.001526556331655622</v>
@@ -7708,7 +7708,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7758,7 +7758,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7808,7 +7808,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7858,7 +7858,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7908,7 +7908,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7958,7 +7958,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -8008,7 +8008,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8058,7 +8058,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8108,7 +8108,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8158,7 +8158,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8208,7 +8208,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8308,7 +8308,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8358,7 +8358,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8408,7 +8408,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002856612681072951</v>
+        <v>0.002895366652985287</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8458,7 +8458,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.00277860587921541</v>
+        <v>0.002816301579060206</v>
       </c>
       <c r="C100">
         <v>22</v>
@@ -8508,7 +8508,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002650860333439912</v>
+        <v>0.002686822985144962</v>
       </c>
       <c r="C101">
         <v>12</v>
@@ -8558,7 +8558,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8608,7 +8608,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8658,7 +8658,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8708,7 +8708,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8758,7 +8758,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8808,7 +8808,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8858,7 +8858,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8958,7 +8958,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8979,7 +8979,7 @@
         <v>8</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K110">
         <v>0.001380766262348967</v>
@@ -9008,7 +9008,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9029,7 +9029,7 @@
         <v>18</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K111">
         <v>0.001318351724321379</v>
@@ -9058,7 +9058,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9108,7 +9108,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9158,7 +9158,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9208,7 +9208,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9258,7 +9258,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9308,7 +9308,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9358,7 +9358,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9408,7 +9408,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9458,7 +9458,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9508,7 +9508,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9558,7 +9558,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9608,7 +9608,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9658,7 +9658,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9708,7 +9708,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9758,7 +9758,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9808,7 +9808,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9858,7 +9858,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9908,7 +9908,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9929,7 +9929,7 @@
         <v>24</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K129">
         <v>0.001254898263358718</v>
@@ -9958,7 +9958,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9979,7 +9979,7 @@
         <v>14</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K130">
         <v>0.001190300644104432</v>
@@ -10008,7 +10008,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10029,7 +10029,7 @@
         <v>15</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K131">
         <v>0.001182294210463123</v>
@@ -10058,7 +10058,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10108,7 +10108,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10158,7 +10158,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10208,7 +10208,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10258,7 +10258,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10308,7 +10308,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10358,7 +10358,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10408,7 +10408,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10458,7 +10458,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10508,7 +10508,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10558,7 +10558,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10608,7 +10608,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10658,7 +10658,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10708,7 +10708,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10758,7 +10758,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10808,7 +10808,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10858,7 +10858,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10908,7 +10908,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10958,7 +10958,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11008,7 +11008,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002019930198010168</v>
+        <v>0.002047333394347294</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11058,25 +11058,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001968835430438015</v>
+        <v>0.001945316298393413</v>
       </c>
       <c r="C152">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D152">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E152">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F152">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>132</v>
+        <v>689</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>430</v>
@@ -11108,25 +11108,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001919278582889984</v>
+        <v>0.00190655389169297</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E153">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F153">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>689</v>
+        <v>714</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>431</v>
@@ -11158,25 +11158,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001881035004165601</v>
+        <v>0.001731301328280527</v>
       </c>
       <c r="C154">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D154">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="E154">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F154">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>714</v>
+        <v>143</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>432</v>
@@ -11208,25 +11208,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001776206578663707</v>
+        <v>0.001675122933688725</v>
       </c>
       <c r="C155">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D155">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E155">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F155">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>433</v>
@@ -11258,25 +11258,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001708128165400173</v>
+        <v>0.001636489173053193</v>
       </c>
       <c r="C156">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="E156">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F156">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>434</v>
@@ -11308,25 +11308,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001652701708710207</v>
+        <v>0.001602975147002228</v>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D157">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E157">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F157">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>275</v>
+        <v>732</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>435</v>
@@ -11358,25 +11358,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.00161458505414585</v>
+        <v>0.001483802150152723</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D158">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="E158">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F158">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>174</v>
+        <v>455</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>436</v>
@@ -11408,13 +11408,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001581519607421758</v>
+        <v>0.001443236748513907</v>
       </c>
       <c r="C159">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D159">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E159">
         <v>0.9399999999999999</v>
@@ -11426,10 +11426,10 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>732</v>
+        <v>1053</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K159">
         <v>0.001124493507438025</v>
@@ -11458,28 +11458,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001463941720113166</v>
+        <v>0.001432136217656037</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E160">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F160">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>455</v>
+        <v>12</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K160">
         <v>0.001121504121469273</v>
@@ -11508,28 +11508,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001423919279219616</v>
+        <v>0.001417583328027044</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E161">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F161">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>1053</v>
+        <v>36</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K161">
         <v>0.001095453618400219</v>
@@ -11558,28 +11558,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001412967327009163</v>
+        <v>0.001416960371711453</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D162">
         <v>108</v>
       </c>
       <c r="E162">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F162">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>12</v>
+        <v>542</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K162">
         <v>0.001095453618400219</v>
@@ -11608,28 +11608,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001398609225240748</v>
+        <v>0.001407141594292421</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D163">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E163">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K163">
         <v>0.001092383631312441</v>
@@ -11658,28 +11658,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001397994607085554</v>
+        <v>0.001388146595613041</v>
       </c>
       <c r="C164">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E164">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F164">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>542</v>
+        <v>370</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K164">
         <v>0.001091114377232166</v>
@@ -11708,25 +11708,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001388307252270259</v>
+        <v>0.001302979056260139</v>
       </c>
       <c r="C165">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>437</v>
@@ -11758,25 +11758,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001369566498297516</v>
+        <v>0.001263465443281474</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E166">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F166">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>370</v>
+        <v>134</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>438</v>
@@ -11808,25 +11808,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001285538911435441</v>
+        <v>0.001206141718888106</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D167">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E167">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F167">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>439</v>
@@ -11858,25 +11858,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001246554181196359</v>
+        <v>0.001174075191782833</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="E168">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F168">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>440</v>
@@ -11908,25 +11908,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001189997724742186</v>
+        <v>0.001154662161387518</v>
       </c>
       <c r="C169">
         <v>5</v>
       </c>
       <c r="D169">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E169">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F169">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>441</v>
@@ -11958,13 +11958,13 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001158360402445735</v>
+        <v>0.001144709298598717</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E170">
         <v>0.99</v>
@@ -11976,7 +11976,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>442</v>
@@ -12008,25 +12008,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001139207212037835</v>
+        <v>0.001142515472895362</v>
       </c>
       <c r="C171">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D171">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E171">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F171">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>443</v>
@@ -12058,25 +12058,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001129387566561793</v>
+        <v>0.00112805412206789</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E172">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F172">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>444</v>
@@ -12108,25 +12108,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001127223104828491</v>
+        <v>0.001051537871481513</v>
       </c>
       <c r="C173">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D173">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E173">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F173">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>269</v>
+        <v>34</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>445</v>
@@ -12158,25 +12158,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001112955316630886</v>
+        <v>0.001007343592508349</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E174">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F174">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>446</v>
@@ -12208,25 +12208,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001037463222561268</v>
+        <v>0.0009921763703678672</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D175">
         <v>60</v>
       </c>
       <c r="E175">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F175">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>447</v>
@@ -12258,13 +12258,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0009938604762163624</v>
+        <v>0.0009530871397836878</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E176">
         <v>0.98</v>
@@ -12276,7 +12276,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>448</v>
@@ -12308,25 +12308,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0009788962646687582</v>
+        <v>0.0009428244759032883</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E177">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F177">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>449</v>
@@ -12358,25 +12358,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0009403302365406726</v>
+        <v>0.0009318232690544</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E178">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F178">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>450</v>
@@ -12408,25 +12408,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0009302049366059957</v>
+        <v>0.0009318232690544</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
       <c r="D179">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E179">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F179">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>451</v>
@@ -12458,25 +12458,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0009193509789701851</v>
+        <v>0.0008448500496178141</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E180">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F180">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>452</v>
@@ -12508,25 +12508,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0009193509789701851</v>
+        <v>0.0008268442307799256</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E181">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F181">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>453</v>
@@ -12558,25 +12558,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0008335418807338261</v>
+        <v>0.0008247450971644268</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D182">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E182">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F182">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>454</v>
@@ -12608,13 +12608,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0008157770666048863</v>
+        <v>0.0008076978057741451</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E183">
         <v>0.97</v>
@@ -12626,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>455</v>
@@ -12658,25 +12658,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0008137060295225473</v>
+        <v>0.0007904269391419011</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E184">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F184">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>456</v>
@@ -12708,13 +12708,13 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0007968869131204106</v>
+        <v>0.0007872729137708168</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E185">
         <v>0.97</v>
@@ -12726,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>24</v>
+        <v>274</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>457</v>
@@ -12758,25 +12758,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.000779847213991487</v>
+        <v>0.0007765311027243775</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E186">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F186">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>458</v>
@@ -12808,25 +12808,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0007767354046936298</v>
+        <v>0.0007752849398359936</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
         <v>32</v>
       </c>
       <c r="E187">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F187">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>459</v>
@@ -12858,25 +12858,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0007661373708932094</v>
+        <v>0.0007727531960773421</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D188">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E188">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F188">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>106</v>
+        <v>505</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>460</v>
@@ -12908,25 +12908,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0007649078876752656</v>
+        <v>0.000760195183592416</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D189">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E189">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F189">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>461</v>
@@ -12958,25 +12958,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0007624100308602282</v>
+        <v>0.0007596684372762929</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E190">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F190">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>505</v>
+        <v>154</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>462</v>
@@ -13008,25 +13008,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0007500201051572002</v>
+        <v>0.0007538720232731806</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F191">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>463</v>
@@ -13058,25 +13058,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0007495004092476013</v>
+        <v>0.0007429889664699077</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E192">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F192">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>464</v>
@@ -13108,25 +13108,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0007437815792234428</v>
+        <v>0.0007294621137903489</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E193">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F193">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>465</v>
@@ -13158,25 +13158,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0007330441902157286</v>
+        <v>0.0007294621137903489</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E194">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F194">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>466</v>
@@ -13208,13 +13208,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0007196983920731712</v>
+        <v>0.0007030389215394622</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E195">
         <v>0.96</v>
@@ -13226,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>467</v>
@@ -13258,13 +13258,13 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0007196983920731712</v>
+        <v>0.000674278361968807</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E196">
         <v>0.96</v>
@@ -13276,7 +13276,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>74</v>
+        <v>337</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>468</v>
@@ -13308,25 +13308,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0006936288695895554</v>
+        <v>0.000658898552415783</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E197">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F197">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>469</v>
@@ -13358,25 +13358,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0006652532650354383</v>
+        <v>0.0006542568957545608</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E198">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F198">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>337</v>
+        <v>87</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>470</v>
@@ -13408,13 +13408,13 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0006500793115203088</v>
+        <v>0.0006427741679447118</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E199">
         <v>0.95</v>
@@ -13426,7 +13426,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>471</v>
@@ -13458,25 +13458,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0006454997826147165</v>
+        <v>0.0006258367218087982</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E200">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F200">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>472</v>
@@ -13508,13 +13508,13 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0006341707490910682</v>
+        <v>0.0006080081421567609</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E201">
         <v>0.95</v>
@@ -13526,7 +13526,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>473</v>
@@ -13558,13 +13558,13 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0006174600076839464</v>
+        <v>0.0006080081421567609</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E202">
         <v>0.95</v>
@@ -13576,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>474</v>
@@ -13608,25 +13608,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0005998700604256199</v>
+        <v>0.0005891989353154264</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E203">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F203">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>475</v>
@@ -13658,25 +13658,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0005998700604256199</v>
+        <v>0.0005891989353154264</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E204">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F204">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>476</v>
@@ -13708,25 +13708,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0005813126114999437</v>
+        <v>0.0005820253780301897</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D205">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E205">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F205">
-        <v>0.06000000000000005</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>25</v>
+        <v>915</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>477</v>
@@ -13758,25 +13758,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0005813126114999437</v>
+        <v>0.0005698060561177096</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E206">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F206">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>478</v>
@@ -13808,25 +13808,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0005742350710135664</v>
+        <v>0.0005693058973668751</v>
       </c>
       <c r="C207">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E207">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F207">
-        <v>0.1899999999999999</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>915</v>
+        <v>40</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>479</v>
@@ -13858,13 +13858,13 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0005621793025694167</v>
+        <v>0.0005464190251298664</v>
       </c>
       <c r="C208">
         <v>2</v>
       </c>
       <c r="D208">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E208">
         <v>0.9</v>
@@ -13876,7 +13876,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>480</v>
@@ -13908,25 +13908,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0005616858383552349</v>
+        <v>0.0005464190251298664</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E209">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F209">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>481</v>
@@ -13958,25 +13958,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0005391053028659124</v>
+        <v>0.0005405793467558965</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E210">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F210">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>482</v>
@@ -14008,25 +14008,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0005391053028659124</v>
+        <v>0.0005257689357407565</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E211">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F211">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>483</v>
@@ -14058,25 +14058,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0005333437875568684</v>
+        <v>0.0005257689357407565</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E212">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F212">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>484</v>
@@ -14108,7 +14108,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.000518731611280634</v>
+        <v>0.0005257689357407565</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -14126,7 +14126,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>485</v>
@@ -14158,7 +14158,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.000518731611280634</v>
+        <v>0.0005257689357407565</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14176,7 +14176,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>486</v>
@@ -14208,7 +14208,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.000518731611280634</v>
+        <v>0.0005257689357407565</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14226,7 +14226,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>487</v>
@@ -14258,13 +14258,13 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.000518731611280634</v>
+        <v>0.0005018200699302662</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E216">
         <v>0.93</v>
@@ -14276,7 +14276,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>488</v>
@@ -14308,13 +14308,13 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.000518731611280634</v>
+        <v>0.0005018200699302662</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E217">
         <v>0.93</v>
@@ -14326,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>489</v>
@@ -14358,25 +14358,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.000495103296814477</v>
+        <v>0.0004761668038607059</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E218">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F218">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>490</v>
@@ -14408,25 +14408,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.000495103296814477</v>
+        <v>0.0004761668038607059</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E219">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F219">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>491</v>
@@ -14458,25 +14458,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0004697933951860642</v>
+        <v>0.0004659932772089622</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D220">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E220">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F220">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>492</v>
@@ -14508,13 +14508,13 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0004697933951860642</v>
+        <v>0.0004485745559474212</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E221">
         <v>0.92</v>
@@ -14526,10 +14526,10 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K221">
         <v>0.001023357644059826</v>
@@ -14558,28 +14558,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0004597560393939609</v>
+        <v>0.0004485745559474212</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E222">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F222">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K222">
         <v>0.001009345223144415</v>
@@ -14608,28 +14608,28 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.000442570464643872</v>
+        <v>0.0004187597743299993</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E223">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F223">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K223">
         <v>0.0009542017536422422</v>
@@ -14658,28 +14658,28 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.000442570464643872</v>
+        <v>0.0004187597743299993</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E224">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F224">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K224">
         <v>0.0009542017536422422</v>
@@ -14708,7 +14708,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0004131547486191214</v>
+        <v>0.0004187597743299993</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14726,10 +14726,10 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K225">
         <v>0.0009465101946623974</v>
@@ -14758,25 +14758,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0004131547486191214</v>
+        <v>0.0003509997345829298</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E226">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F226">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>493</v>
@@ -14808,25 +14808,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0004131547486191214</v>
+        <v>0.0003509997345829298</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E227">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F227">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>494</v>
@@ -14858,7 +14858,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0003463016650513079</v>
+        <v>0.0003509997345829298</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14876,7 +14876,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>495</v>
@@ -14908,25 +14908,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0003463016650513079</v>
+        <v>0.0003125968514990978</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F229">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>496</v>
@@ -14958,25 +14958,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0003463016650513079</v>
+        <v>0.0003121036313678689</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E230">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F230">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>497</v>
@@ -15008,25 +15008,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0003084127977833482</v>
+        <v>0.0003121036313678689</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E231">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F231">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>498</v>
@@ -15058,7 +15058,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0003079261793165726</v>
+        <v>0.0003121036313678689</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -15076,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>499</v>
@@ -15108,25 +15108,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0003079261793165726</v>
+        <v>0.0002756643219111852</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E233">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F233">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>500</v>
@@ -15158,25 +15158,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0003079261793165726</v>
+        <v>0.0002756643219111852</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E234">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F234">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>501</v>
@@ -15208,25 +15208,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0002719746035891329</v>
+        <v>0.00026904134403715</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E235">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F235">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>502</v>
@@ -15258,25 +15258,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0002719746035891329</v>
+        <v>0.00026904134403715</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E236">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F236">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>503</v>
@@ -15308,7 +15308,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0002654402731056593</v>
+        <v>0.00026904134403715</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15326,7 +15326,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>504</v>
@@ -15358,7 +15358,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0002654402731056593</v>
+        <v>0.00026904134403715</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15376,7 +15376,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>505</v>
@@ -15408,25 +15408,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0002654402731056593</v>
+        <v>0.0002365635174886073</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E239">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F239">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>506</v>
@@ -15458,25 +15458,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0002654402731056593</v>
+        <v>0.0002365635174886073</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E240">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F240">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>507</v>
@@ -15508,7 +15508,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0002333971565364342</v>
+        <v>0.0002365635174886073</v>
       </c>
       <c r="C241">
         <v>2</v>
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>508</v>
@@ -15558,25 +15558,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0002333971565364342</v>
+        <v>0.0002210393534725763</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F242">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>509</v>
@@ -15608,19 +15608,19 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0002333971565364342</v>
+        <v>0.0002210393534725763</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E243">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F243">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
@@ -15658,7 +15658,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0002180807807173209</v>
+        <v>0.0002210393534725763</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15676,7 +15676,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>511</v>
@@ -15708,7 +15708,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0002180807807173209</v>
+        <v>0.0002210393534725763</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15726,7 +15726,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>512</v>
@@ -15758,7 +15758,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0002180807807173209</v>
+        <v>0.0002210393534725763</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>513</v>
@@ -15808,7 +15808,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0002180807807173209</v>
+        <v>0.0002210393534725763</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15826,7 +15826,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>514</v>
@@ -15858,7 +15858,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0002180807807173209</v>
+        <v>0.0002210393534725763</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15876,7 +15876,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>515</v>
@@ -15908,7 +15908,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0002180807807173209</v>
+        <v>0.0002210393534725763</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15926,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>516</v>
@@ -15958,25 +15958,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0002180807807173209</v>
+        <v>0.0001952372099875069</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E250">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F250">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>517</v>
@@ -16008,25 +16008,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0002180807807173209</v>
+        <v>0.0001952372099875069</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E251">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F251">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>518</v>
@@ -16058,25 +16058,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0001926239943713439</v>
+        <v>0.0001672756673975367</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E252">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F252">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>519</v>
@@ -16108,25 +16108,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0001926239943713439</v>
+        <v>0.0001672756673975367</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E253">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F253">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>520</v>
@@ -16158,7 +16158,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0001650367120965708</v>
+        <v>0.0001672756673975367</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>521</v>
@@ -16208,7 +16208,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0001650367120965708</v>
+        <v>0.0001672756673975367</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16226,7 +16226,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>522</v>
@@ -16258,7 +16258,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0001650367120965708</v>
+        <v>0.0001672756673975367</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16276,7 +16276,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>523</v>
@@ -16308,7 +16308,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0001650367120965708</v>
+        <v>0.0001672756673975367</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16326,7 +16326,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>524</v>
@@ -16358,7 +16358,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0001650367120965708</v>
+        <v>0.0001672756673975367</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16376,7 +16376,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>525</v>
@@ -16408,7 +16408,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0001650367120965708</v>
+        <v>0.0001672756673975367</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16426,7 +16426,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>526</v>
@@ -16458,25 +16458,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0001650367120965708</v>
+        <v>0.000149298200734221</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D260">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E260">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="F260">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>527</v>
@@ -16508,25 +16508,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0001650367120965708</v>
+        <v>0.0001122500920948199</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E261">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F261">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>528</v>
@@ -16558,25 +16558,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0001472998706533483</v>
+        <v>0.0001073389612395751</v>
       </c>
       <c r="C262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E262">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="F262">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>529</v>
@@ -16608,25 +16608,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0001107476444128607</v>
+        <v>0.0001073389612395751</v>
       </c>
       <c r="C263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E263">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F263">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>530</v>
@@ -16658,7 +16658,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.000105902248177798</v>
+        <v>0.0001073389612395751</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16676,7 +16676,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>531</v>
@@ -16708,7 +16708,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.000105902248177798</v>
+        <v>0.0001073389612395751</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16726,7 +16726,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>532</v>
@@ -16758,7 +16758,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.000105902248177798</v>
+        <v>0.0001073389612395751</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16776,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>533</v>
@@ -16808,7 +16808,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.000105902248177798</v>
+        <v>0.0001073389612395751</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16826,7 +16826,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>534</v>
@@ -16858,7 +16858,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.000105902248177798</v>
+        <v>0.0001073389612395751</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16876,7 +16876,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>535</v>
@@ -16908,7 +16908,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.000105902248177798</v>
+        <v>0.0001073389612395751</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16926,7 +16926,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>536</v>
@@ -16958,7 +16958,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.000105902248177798</v>
+        <v>0.0001073389612395751</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16976,7 +16976,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>537</v>
@@ -17008,25 +17008,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.000105902248177798</v>
+        <v>0.0001067861150049387</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D271">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E271">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F271">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>538</v>
@@ -17058,25 +17058,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.000105902248177798</v>
+        <v>6.178688015006735E-05</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E272">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F272">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>539</v>
@@ -17108,25 +17108,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.000105356801692491</v>
+        <v>6.178688015006735E-05</v>
       </c>
       <c r="C273">
         <v>2</v>
       </c>
       <c r="D273">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E273">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F273">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>540</v>
@@ -17158,25 +17158,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>6.095987365836183E-05</v>
+        <v>6.178688015006639E-05</v>
       </c>
       <c r="C274">
         <v>2</v>
       </c>
       <c r="D274">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E274">
+        <v>0.67</v>
+      </c>
+      <c r="F274">
         <v>0.33</v>
       </c>
-      <c r="F274">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>541</v>
@@ -17208,25 +17208,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>6.095987365836183E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275">
         <v>3</v>
       </c>
       <c r="E275">
+        <v>0.67</v>
+      </c>
+      <c r="F275">
         <v>0.33</v>
       </c>
-      <c r="F275">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>542</v>
@@ -17258,13 +17258,13 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>6.095987365836087E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E276">
         <v>0.67</v>
@@ -17276,7 +17276,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>543</v>
@@ -17308,7 +17308,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>4.310514004410216E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17326,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>544</v>
@@ -17358,7 +17358,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>4.310514004410216E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17376,7 +17376,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>545</v>
@@ -17408,7 +17408,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>4.310514004410216E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17426,7 +17426,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>546</v>
@@ -17458,7 +17458,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>4.310514004410216E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17476,7 +17476,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>547</v>
@@ -17508,7 +17508,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>4.310514004410216E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17526,7 +17526,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>548</v>
@@ -17558,7 +17558,7 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>4.310514004410216E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -17576,7 +17576,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>549</v>
@@ -17608,7 +17608,7 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>4.310514004410216E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -17626,7 +17626,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>550</v>
@@ -17658,7 +17658,7 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>4.310514004410216E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -17676,7 +17676,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>551</v>
@@ -17708,7 +17708,7 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>4.310514004410216E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -17726,7 +17726,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>552</v>
@@ -17758,7 +17758,7 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>4.310514004410216E-05</v>
+        <v>4.368992194247243E-05</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -17776,7 +17776,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>553</v>
@@ -17808,25 +17808,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>4.310514004410216E-05</v>
+        <v>0</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E287">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F287">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>554</v>
@@ -17858,25 +17858,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>4.310514004410216E-05</v>
+        <v>0</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E288">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F288">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>555</v>
@@ -17926,7 +17926,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>556</v>
@@ -17976,7 +17976,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>557</v>
@@ -18011,10 +18011,10 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E291">
         <v>0.5</v>
@@ -18026,7 +18026,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>558</v>
@@ -18076,7 +18076,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>559</v>
@@ -18111,10 +18111,10 @@
         <v>0</v>
       </c>
       <c r="C293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E293">
         <v>0.5</v>
@@ -18176,7 +18176,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>561</v>
@@ -18226,7 +18226,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>562</v>
@@ -18276,10 +18276,10 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K296">
         <v>0.0008835594689477633</v>
@@ -18326,10 +18326,10 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K297">
         <v>0.0008113371443073778</v>
@@ -18379,7 +18379,7 @@
         <v>27</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K298">
         <v>0.0007983225154466127</v>
@@ -18426,10 +18426,10 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K299">
         <v>0.0007746026820461353</v>
@@ -18476,10 +18476,10 @@
         <v>1</v>
       </c>
       <c r="H300">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K300">
         <v>0.0007702962309594279</v>
@@ -18511,10 +18511,10 @@
         <v>0</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E301">
         <v>0.5</v>
@@ -18526,7 +18526,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>563</v>
@@ -18576,7 +18576,7 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>564</v>
@@ -18611,10 +18611,10 @@
         <v>0</v>
       </c>
       <c r="C303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D303">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E303">
         <v>0.5</v>
@@ -18626,7 +18626,7 @@
         <v>1</v>
       </c>
       <c r="H303">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>565</v>
@@ -18654,30 +18654,6 @@
       </c>
     </row>
     <row r="304" spans="1:17">
-      <c r="A304" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-      <c r="C304">
-        <v>1</v>
-      </c>
-      <c r="D304">
-        <v>2</v>
-      </c>
-      <c r="E304">
-        <v>0.5</v>
-      </c>
-      <c r="F304">
-        <v>0.5</v>
-      </c>
-      <c r="G304" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304">
-        <v>8</v>
-      </c>
       <c r="J304" s="1" t="s">
         <v>566</v>
       </c>
@@ -18703,31 +18679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
-      <c r="A305" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B305">
-        <v>0</v>
-      </c>
-      <c r="C305">
-        <v>1</v>
-      </c>
-      <c r="D305">
-        <v>2</v>
-      </c>
-      <c r="E305">
-        <v>0.5</v>
-      </c>
-      <c r="F305">
-        <v>0.5</v>
-      </c>
-      <c r="G305" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305">
-        <v>234</v>
-      </c>
+    <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
         <v>567</v>
       </c>
@@ -18753,7 +18705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
         <v>568</v>
       </c>
@@ -18779,7 +18731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
         <v>569</v>
       </c>
@@ -18805,7 +18757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
         <v>570</v>
       </c>
@@ -18831,7 +18783,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
         <v>571</v>
       </c>
@@ -18857,7 +18809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
         <v>572</v>
       </c>
@@ -18883,7 +18835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
         <v>573</v>
       </c>
@@ -18909,7 +18861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
         <v>574</v>
       </c>
@@ -18935,7 +18887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
         <v>575</v>
       </c>
@@ -18961,7 +18913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
         <v>576</v>
       </c>
@@ -18987,7 +18939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
         <v>577</v>
       </c>
@@ -19013,7 +18965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
         <v>578</v>
       </c>
@@ -19039,7 +18991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
         <v>579</v>
       </c>
@@ -19065,7 +19017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="10:17">
       <c r="J318" s="1" t="s">
         <v>580</v>
       </c>
@@ -19091,7 +19043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="10:17">
       <c r="J319" s="1" t="s">
         <v>581</v>
       </c>
@@ -19117,7 +19069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="10:17">
       <c r="J320" s="1" t="s">
         <v>582</v>
       </c>
@@ -22447,7 +22399,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K448">
         <v>0.0007420939302718324</v>
@@ -22473,7 +22425,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K449">
         <v>0.0007374357846942288</v>
@@ -22499,7 +22451,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K450">
         <v>0.0007329277431201312</v>
@@ -22525,7 +22477,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K451">
         <v>0.0006998236877247849</v>
@@ -22551,7 +22503,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K452">
         <v>0.0006617537992374169</v>
@@ -22577,7 +22529,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K453">
         <v>0.0006617537992374169</v>
@@ -22603,7 +22555,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K454">
         <v>0.0006369278970034576</v>
@@ -22629,7 +22581,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K455">
         <v>0.0006232140126951944</v>
@@ -22655,7 +22607,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K456">
         <v>0.0006232140126951944</v>
@@ -22681,7 +22633,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K457">
         <v>0.0006127077584055176</v>
@@ -22707,7 +22659,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K458">
         <v>0.0005947204334675928</v>
@@ -22733,7 +22685,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K459">
         <v>0.0005841931624506199</v>
@@ -22759,7 +22711,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K460">
         <v>0.0005691778941357758</v>
@@ -31833,7 +31785,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K809">
         <v>0.0005046726115722075</v>
@@ -31859,7 +31811,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K810">
         <v>0.0005046726115722075</v>
@@ -31885,7 +31837,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K811">
         <v>0.0005046726115722075</v>
@@ -31911,7 +31863,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K812">
         <v>0.0005046726115722075</v>
@@ -31937,7 +31889,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K813">
         <v>0.0005046726115722075</v>
@@ -31963,7 +31915,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K814">
         <v>0.0004641629785818182</v>
@@ -31989,7 +31941,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K815">
         <v>0.0004641629785818182</v>
@@ -32015,7 +31967,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K816">
         <v>0.000450546540188085</v>
@@ -32041,7 +31993,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K817">
         <v>0.0004231560297869526</v>
@@ -32067,7 +32019,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K818">
         <v>0.0004231560297869526</v>
@@ -32093,7 +32045,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K819">
         <v>0.0004205308514151378</v>
@@ -32119,7 +32071,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K820">
         <v>0.0004205308514151378</v>
@@ -32145,7 +32097,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K821">
         <v>0.0003816645066369017</v>
@@ -32171,7 +32123,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K822">
         <v>0.0003816645066369017</v>
@@ -32197,7 +32149,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K823">
         <v>0.0003669097603075841</v>
@@ -32223,7 +32175,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K824">
         <v>0.0003397158051273506</v>
@@ -32249,7 +32201,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K825">
         <v>0.0003397158051273506</v>
@@ -32275,7 +32227,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K826">
         <v>0.0003397158051273506</v>
@@ -32301,7 +32253,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K827">
         <v>0.0003096185304353457</v>
@@ -32327,7 +32279,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K828">
         <v>0.0002928235976198846</v>
@@ -32353,7 +32305,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K829">
         <v>0.0002546845365893054</v>
@@ -32379,7 +32331,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K830">
         <v>0.0002546845365893054</v>
@@ -32405,7 +32357,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K831">
         <v>0.0002546845365893054</v>
@@ -32431,7 +32383,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K832">
         <v>0.0002118354488818852</v>
@@ -32457,7 +32409,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K833">
         <v>0.0002118354488818852</v>
@@ -32483,7 +32435,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K834">
         <v>0.0002118354488818852</v>
@@ -32509,7 +32461,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K835">
         <v>0.000179316559356513</v>
@@ -32535,7 +32487,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K836">
         <v>0.0001690617829109151</v>
@@ -32561,7 +32513,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K837">
         <v>0.0001690617829109151</v>
@@ -32587,7 +32539,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K838">
         <v>0.0001690617829109151</v>
@@ -32613,7 +32565,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K839">
         <v>0.0001690617829109151</v>
@@ -32639,7 +32591,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K840">
         <v>0.0001500160110453751</v>
@@ -32665,7 +32617,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K841">
         <v>0.0001500160110453751</v>
@@ -32691,7 +32643,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K842">
         <v>0.0001267959551000304</v>
@@ -32717,7 +32669,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K843">
         <v>0.0001267959551000304</v>
@@ -32743,7 +32695,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K844">
         <v>0.0001267959551000304</v>
@@ -32769,7 +32721,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K845">
         <v>0.0001267959551000304</v>
@@ -32795,7 +32747,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K846">
         <v>0.0001267959551000304</v>
@@ -32821,7 +32773,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K847">
         <v>0.0001267959551000304</v>
@@ -32847,7 +32799,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K848">
         <v>0.0001267959551000304</v>
@@ -32873,7 +32825,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K849">
         <v>0.0001267959551000304</v>
@@ -32899,7 +32851,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K850">
         <v>0.0001213748092557113</v>
@@ -32925,7 +32877,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K851">
         <v>0.0001213748092557113</v>
@@ -32951,7 +32903,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K852">
         <v>0.0001213748092557113</v>
@@ -32977,7 +32929,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K853">
         <v>9.370168713148328E-05</v>
@@ -33003,7 +32955,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K854">
         <v>9.370168713148328E-05</v>
@@ -33029,7 +32981,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K855">
         <v>8.582495068993721E-05</v>
@@ -33055,7 +33007,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K856">
         <v>8.582495068993721E-05</v>
@@ -33081,7 +33033,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K857">
         <v>8.582495068993721E-05</v>
@@ -33107,7 +33059,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K858">
         <v>8.582495068993721E-05</v>
@@ -33133,7 +33085,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K859">
         <v>8.582495068993721E-05</v>
@@ -33159,7 +33111,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K860">
         <v>8.582495068993721E-05</v>
@@ -33185,7 +33137,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K861">
         <v>8.582495068993721E-05</v>
@@ -33211,7 +33163,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K862">
         <v>8.582495068993721E-05</v>
@@ -33237,7 +33189,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K863">
         <v>6.254458793771563E-05</v>
@@ -33263,7 +33215,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K864">
         <v>4.769455610022023E-05</v>
@@ -33289,7 +33241,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K865">
         <v>4.769455610022023E-05</v>
@@ -33315,7 +33267,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K866">
         <v>4.769455610022023E-05</v>
@@ -33341,7 +33293,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K867">
         <v>4.769455610022023E-05</v>
@@ -33367,7 +33319,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K868">
         <v>4.769455610022023E-05</v>
@@ -33393,7 +33345,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K869">
         <v>4.769455610022023E-05</v>
@@ -33419,7 +33371,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K870">
         <v>4.769455610022023E-05</v>
@@ -33445,7 +33397,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K871">
         <v>4.769455610022023E-05</v>
@@ -33471,7 +33423,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K872">
         <v>4.769455610022023E-05</v>
@@ -33497,7 +33449,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K873">
         <v>4.398715709106861E-05</v>
@@ -33523,7 +33475,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K874">
         <v>4.331472751097742E-05</v>
@@ -33549,7 +33501,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K875">
         <v>2.241620347237162E-05</v>
@@ -33575,7 +33527,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K876">
         <v>1.585064948377149E-05</v>
@@ -33601,7 +33553,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K877">
         <v>1.585064948377149E-05</v>
@@ -33627,7 +33579,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K878">
         <v>1.585064948377149E-05</v>
@@ -33653,7 +33605,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K879">
         <v>1.585064948377149E-05</v>
@@ -33679,7 +33631,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K880">
         <v>1.585064948377149E-05</v>
@@ -33705,7 +33657,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K881">
         <v>1.585064948377149E-05</v>
@@ -33731,7 +33683,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K882">
         <v>1.585064948377149E-05</v>
@@ -33757,7 +33709,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K883">
         <v>1.585064948377149E-05</v>
@@ -33783,7 +33735,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K884">
         <v>1.585064948377149E-05</v>
@@ -33809,7 +33761,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K885">
         <v>1.585064948377149E-05</v>
@@ -33835,7 +33787,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K886">
         <v>1.585064948377149E-05</v>
@@ -33861,7 +33813,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K887">
         <v>1.585064948377149E-05</v>
@@ -33887,7 +33839,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K888">
         <v>1.120810173618569E-05</v>
@@ -33913,7 +33865,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K889">
         <v>1.120810173618569E-05</v>
@@ -33939,7 +33891,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K890">
         <v>0</v>
@@ -33965,7 +33917,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K891">
         <v>0</v>
@@ -33991,7 +33943,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K892">
         <v>0</v>
@@ -34017,7 +33969,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K893">
         <v>0</v>
@@ -34043,7 +33995,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K894">
         <v>0</v>
@@ -34069,7 +34021,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K895">
         <v>0</v>
@@ -34095,7 +34047,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K896">
         <v>0</v>
@@ -34121,7 +34073,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K897">
         <v>0</v>
@@ -34147,7 +34099,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K898">
         <v>0</v>
@@ -34173,7 +34125,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K899">
         <v>0</v>
@@ -34199,7 +34151,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K900">
         <v>0</v>
@@ -34225,7 +34177,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K901">
         <v>0</v>
@@ -34251,7 +34203,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K902">
         <v>0</v>
@@ -34277,7 +34229,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K903">
         <v>0</v>
@@ -34303,7 +34255,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K904">
         <v>0</v>
@@ -34329,7 +34281,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K905">
         <v>0</v>
@@ -34355,7 +34307,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K906">
         <v>0</v>
